--- a/BalanceSheet/CAG_bal.xlsx
+++ b/BalanceSheet/CAG_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>40500000.0</v>
+        <v>1579000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-44400000.0</v>
+        <v>1623000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-202800000.0</v>
+        <v>1580000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>268100000.0</v>
+        <v>1378000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>125400000.0</v>
+        <v>1647000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1770400000.0</v>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-135300000.0</v>
+        <v>1443000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90400000.0</v>
+        <v>1598000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>20800000.0</v>
+        <v>1523000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>118000000.0</v>
+        <v>1526000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-90900000.0</v>
+        <v>1357000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1441600000.0</v>
